--- a/biology/Médecine/Drainage_lymphatique_manuel/Drainage_lymphatique_manuel.xlsx
+++ b/biology/Médecine/Drainage_lymphatique_manuel/Drainage_lymphatique_manuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le drainage lymphatique manuel est une technique de massage visant à évacuer des « toxines » du corps. Il prend différentes formes, dont l'une est une technique thérapeutique alternative, inventée dans les années 1930 par Emil Vodder (en)[1]. L'efficacité de cette technique n'a pas été rigoureusement prouvée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le drainage lymphatique manuel est une technique de massage visant à évacuer des « toxines » du corps. Il prend différentes formes, dont l'une est une technique thérapeutique alternative, inventée dans les années 1930 par Emil Vodder (en). L'efficacité de cette technique n'a pas été rigoureusement prouvée.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emil Vodder est docteur en philosophie[2]. En 1932, avec sa femme Estrid, il travaille comme masseur sur la Côte d'Azur et « découvre » la méthode du drainage lymphatique manuel (DLM) en traitant des « refroidissements chroniques » par de légers massages circulaires[3]. Dès lors, à ses yeux, le drainage permettait d’évacuer les « toxines » du corps, responsables d’une large gamme de maux. Le point de départ officiel n’est pas une publication scientifique, mais un exposé lors d’un salon « Exposition de beauté », à Paris[1], suivi d'un article, Le drainage lymphatique, une nouvelle méthode thérapeutique, dans un magazine généraliste de santé[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emil Vodder est docteur en philosophie. En 1932, avec sa femme Estrid, il travaille comme masseur sur la Côte d'Azur et « découvre » la méthode du drainage lymphatique manuel (DLM) en traitant des « refroidissements chroniques » par de légers massages circulaires. Dès lors, à ses yeux, le drainage permettait d’évacuer les « toxines » du corps, responsables d’une large gamme de maux. Le point de départ officiel n’est pas une publication scientifique, mais un exposé lors d’un salon « Exposition de beauté », à Paris, suivi d'un article, Le drainage lymphatique, une nouvelle méthode thérapeutique, dans un magazine généraliste de santé.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Évaluation scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trois études portant sur l'efficacité du DLM méthode Vodder sont référencées dans la base de données Pubmed. La première[5] compare l'efficacité de ce dernier par rapport à un dispositif de compression pneumatique intermittente chez des patientes atteintes d'un lymphœdème du membre supérieur à la suite d'un cancer du sein. Elle conclut qu'il n'y a pas de différence significative entre les deux groupes.
-La deuxième[6] porte sur le traitement d'un œdème survenant après une fracture de l'extrémité distale du radius. Cette étude présente un biais majeur : le groupe faisant office de contrôle ne se voit proposer aucun traitement substitutif au DLM. Il est donc impossible de discerner l'efficacité spécifique du DLM méthode Vodder des effets contextuels. La troisième[7], traitant de l’œdème dans le cadre de la sclérodermie systémique, souffre du même biais.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois études portant sur l'efficacité du DLM méthode Vodder sont référencées dans la base de données Pubmed. La première compare l'efficacité de ce dernier par rapport à un dispositif de compression pneumatique intermittente chez des patientes atteintes d'un lymphœdème du membre supérieur à la suite d'un cancer du sein. Elle conclut qu'il n'y a pas de différence significative entre les deux groupes.
+La deuxième porte sur le traitement d'un œdème survenant après une fracture de l'extrémité distale du radius. Cette étude présente un biais majeur : le groupe faisant office de contrôle ne se voit proposer aucun traitement substitutif au DLM. Il est donc impossible de discerner l'efficacité spécifique du DLM méthode Vodder des effets contextuels. La troisième, traitant de l’œdème dans le cadre de la sclérodermie systémique, souffre du même biais.
 </t>
         </is>
       </c>
